--- a/Version4.9/ejemplo_asiento_magma.xlsx
+++ b/Version4.9/ejemplo_asiento_magma.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>cod_cta</t>
   </si>
@@ -42,15 +42,9 @@
     <t>imp_mov_mo</t>
   </si>
   <si>
-    <t>Conciliar Viajes en Tarjeta</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
-    <t>Tarjeta</t>
-  </si>
-  <si>
     <t>0627</t>
   </si>
   <si>
@@ -123,7 +117,31 @@
     <t>Pendiente</t>
   </si>
   <si>
-    <t>%Banco</t>
+    <t>Alta de una nueva conciliacion</t>
+  </si>
+  <si>
+    <t>Banco Provincia</t>
+  </si>
+  <si>
+    <t>501-241554</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Fecha Incio:</t>
+  </si>
+  <si>
+    <t>Cuenta:</t>
+  </si>
+  <si>
+    <t>Banco:</t>
+  </si>
+  <si>
+    <t>Fecha Fin:</t>
+  </si>
+  <si>
+    <t>Validar no se haya pagado el comprobante  / validar que no se haya trans</t>
   </si>
 </sst>
 </file>
@@ -202,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -225,6 +243,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,10 +832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,258 +843,292 @@
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="15">
+        <v>42491</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="13">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="6">
+        <v>42546</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1265</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8">
+        <v>450</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="8">
+        <v>248569541</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="6">
+        <v>42546</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1454</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8">
+        <v>530</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="8">
+        <v>248569542</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="6">
+        <v>42547</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7845</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="8">
+        <v>460</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8">
+        <v>248569543</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="6">
+        <v>42547</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4236</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="8">
+        <v>471</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="8">
+        <v>248569544</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
+        <v>42548</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="8">
+        <v>850</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="8">
+        <v>248569545</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="6">
+        <v>42548</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="8">
+        <v>741</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="8">
+        <v>248569546</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="6">
-        <v>42546</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1265</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8">
-        <v>450</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="8">
-        <v>248569541</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="6">
-        <v>42546</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1454</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8">
-        <v>530</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="8">
-        <v>248569542</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="6">
-        <v>42547</v>
-      </c>
-      <c r="D9" s="7">
-        <v>7845</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8">
-        <v>460</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="8">
-        <v>248569543</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="6">
-        <v>42547</v>
-      </c>
-      <c r="D10" s="7">
-        <v>4236</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="8">
-        <v>471</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="8">
-        <v>248569544</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="6">
-        <v>42548</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="8">
-        <v>850</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="8">
-        <v>248569545</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="6">
-        <v>42548</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="8">
-        <v>741</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="8">
-        <v>248569546</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="D27" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D11:D12" numberStoredAsText="1"/>
+    <ignoredError sqref="D16:D17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>